--- a/biology/Botanique/Aframomum_citratum/Aframomum_citratum.xlsx
+++ b/biology/Botanique/Aframomum_citratum/Aframomum_citratum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aframomum citratum – également connue sous l'appellation « maniguette juteuse », ou mbongo mwel en bassa, ou mvonlo en ewondo[2] – est une espèce de plantes à fleurs de la famille des Zingiberaceae et du genre Aframomum, présente au Cameroun, au Gabon et au Nigeria.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aframomum citratum – également connue sous l'appellation « maniguette juteuse », ou mbongo mwel en bassa, ou mvonlo en ewondo – est une espèce de plantes à fleurs de la famille des Zingiberaceae et du genre Aframomum, présente au Cameroun, au Gabon et au Nigeria.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une herbe pérenne à rhizome souterrain, dont la tige peut atteindre 4 m de hauteur. Les fruits sont des capsules ovoïdes d'environ 3 cm de diamètre, dans lesquelles de nombreuses petites graines sont contenues dans une pulpe blanche[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une herbe pérenne à rhizome souterrain, dont la tige peut atteindre 4 m de hauteur. Les fruits sont des capsules ovoïdes d'environ 3 cm de diamètre, dans lesquelles de nombreuses petites graines sont contenues dans une pulpe blanche.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a été observée au sud du Cameroun à Sodibanga et à Bipindi, également au Gabon et au sud-est du Nigeria[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a été observée au sud du Cameroun à Sodibanga et à Bipindi, également au Gabon et au sud-est du Nigeria.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les graines contenues dans les baies sont utilisées comme condiment pour épicer notamment les ragoûts et d'autres plats en pays bassa. On leur connaît également quelques utilisations médicinales, par exemple pour traiter la toux[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les graines contenues dans les baies sont utilisées comme condiment pour épicer notamment les ragoûts et d'autres plats en pays bassa. On leur connaît également quelques utilisations médicinales, par exemple pour traiter la toux.
 </t>
         </is>
       </c>
